--- a/pilotos.xlsx
+++ b/pilotos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clasica" sheetId="1" state="visible" r:id="rId3"/>
@@ -341,9 +341,6 @@
     <t xml:space="preserve">Fiat 600 R</t>
   </si>
   <si>
-    <t xml:space="preserve">MALLO, Eduardo - MALLO, Eduardo – ZAZZARINO,Agustin</t>
-  </si>
-  <si>
     <t xml:space="preserve">DE ZAMBOTTI, Nicolás - DE ZAMBOTTI, Mauricio</t>
   </si>
   <si>
@@ -681,6 +678,9 @@
   </si>
   <si>
     <t xml:space="preserve">ADROVER, Fabián - SLOMINSKI, Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALLO, Eduardo  – ZAZZARINO,Agustin</t>
   </si>
   <si>
     <t xml:space="preserve">GARRAHAN, Felipe - GARRAHAN, Miguel angel</t>
@@ -2887,7 +2887,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2930,7 +2930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>9</v>
@@ -2946,7 +2946,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -2994,7 +2994,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -3010,7 +3010,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>45</v>
@@ -3026,10 +3026,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1981</v>
@@ -3058,10 +3058,10 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1978</v>
@@ -3074,7 +3074,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>28</v>
@@ -3106,10 +3106,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>2011</v>
@@ -3122,7 +3122,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>28</v>
@@ -3138,10 +3138,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="F15" s="11" t="n">
         <v>1984</v>
@@ -3154,10 +3154,10 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="F16" s="11" t="n">
         <v>2017</v>
@@ -3170,10 +3170,10 @@
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>1969</v>
@@ -3186,10 +3186,10 @@
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>1994</v>
@@ -3218,10 +3218,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>1998</v>
@@ -3234,7 +3234,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>45</v>
@@ -3250,10 +3250,10 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -3322,10 +3322,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>2011</v>
@@ -3362,10 +3362,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1994</v>
@@ -3382,10 +3382,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>2011</v>
@@ -3402,10 +3402,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1996</v>
@@ -3422,7 +3422,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>71</v>
@@ -3442,7 +3442,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>28</v>
@@ -3462,10 +3462,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>2013</v>
@@ -3482,10 +3482,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>1986</v>
@@ -3502,7 +3502,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>45</v>
@@ -3522,10 +3522,10 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="F12" s="8" t="n">
         <v>1996</v>
@@ -3542,7 +3542,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>45</v>
@@ -3562,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>71</v>
@@ -3582,10 +3582,10 @@
         <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>2009</v>
@@ -3742,10 +3742,10 @@
         <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>1993</v>
@@ -3762,7 +3762,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>45</v>
@@ -3822,10 +3822,10 @@
         <v>40</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="8" t="n">
         <v>2013</v>
@@ -3842,7 +3842,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>28</v>
@@ -3882,7 +3882,7 @@
         <v>40</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>83</v>
@@ -3942,10 +3942,10 @@
         <v>40</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>2021</v>
@@ -4022,10 +4022,10 @@
         <v>30</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>1977</v>
@@ -4042,10 +4042,10 @@
         <v>50</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>2024</v>
@@ -4062,10 +4062,10 @@
         <v>50</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="F39" s="10" t="n">
         <v>1996</v>
@@ -4082,10 +4082,10 @@
         <v>50</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="F40" s="10" t="n">
         <v>1984</v>
@@ -4122,7 +4122,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>71</v>
@@ -4142,7 +4142,7 @@
         <v>40</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>71</v>
@@ -4213,13 +4213,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1987</v>
@@ -4236,10 +4236,10 @@
         <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1993</v>
@@ -4256,10 +4256,10 @@
         <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -4271,13 +4271,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -4289,13 +4289,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -4310,10 +4310,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1985</v>
@@ -4327,13 +4327,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="F8" s="11"/>
     </row>
@@ -4345,13 +4345,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="11" t="n">
         <v>1991</v>
@@ -4368,10 +4368,10 @@
         <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1995</v>
@@ -4388,10 +4388,10 @@
         <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1998</v>
@@ -4408,10 +4408,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1985</v>
@@ -4425,13 +4425,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -4443,13 +4443,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="F14" s="11" t="n">
         <v>1971</v>
@@ -4473,7 +4473,7 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -4520,7 +4520,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>45</v>
@@ -4537,13 +4537,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>2012</v>
@@ -4557,13 +4557,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>2005</v>
@@ -4577,13 +4577,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1980</v>
@@ -4597,13 +4597,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1979</v>
@@ -4617,13 +4617,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7" s="11" t="n">
         <v>2017</v>
@@ -4637,13 +4637,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="F8" s="11" t="n">
         <v>1985</v>
@@ -4657,13 +4657,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1980</v>
@@ -4677,13 +4677,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1976</v>
@@ -4697,13 +4697,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>2001</v>
@@ -4717,13 +4717,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1999</v>
@@ -4737,10 +4737,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>28</v>
@@ -4757,13 +4757,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>2001</v>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
@@ -4797,10 +4797,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>45</v>
@@ -4820,7 +4820,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>9</v>
@@ -4837,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>218</v>
@@ -4860,10 +4860,10 @@
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>2011</v>
@@ -4883,7 +4883,7 @@
         <v>220</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>2022</v>
@@ -4983,7 +4983,7 @@
         <v>226</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>2000</v>
@@ -5023,7 +5023,7 @@
         <v>229</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="11" t="n">
         <v>1986</v>
@@ -5060,7 +5060,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>16</v>
@@ -5692,7 +5692,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>269</v>
@@ -5726,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>273</v>
@@ -5794,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>283</v>
@@ -5905,7 +5905,7 @@
         <v>290</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="8" t="n">
         <v>1981</v>
@@ -5945,7 +5945,7 @@
         <v>293</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>1981</v>
@@ -5985,7 +5985,7 @@
         <v>296</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>1981</v>
@@ -6159,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>315</v>
@@ -6392,7 +6392,7 @@
         <v>303</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -6432,7 +6432,7 @@
         <v>303</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>334</v>
@@ -6452,10 +6452,10 @@
         <v>303</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="F6" s="11" t="n">
         <v>2017</v>
@@ -6472,10 +6472,10 @@
         <v>303</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1994</v>

--- a/pilotos.xlsx
+++ b/pilotos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Clasica" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="341">
   <si>
     <t xml:space="preserve"> N°</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t xml:space="preserve">ZEN, Ernesto - SUCCINI, Marta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE PASCALE, Valeria - IPPOLITO, Santiago</t>
   </si>
   <si>
     <t xml:space="preserve">DAVICO, Jorge - DAVICO, Sergio</t>
@@ -1557,8 +1554,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2887,7 +2884,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3275,8 +3272,8 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3813,7 +3810,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>2</v>
@@ -3824,16 +3821,16 @@
       <c r="D27" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="8" t="n">
-        <v>2013</v>
+      <c r="E27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>1973</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>2</v>
@@ -3842,18 +3839,18 @@
         <v>40</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="10" t="n">
-        <v>1973</v>
+        <v>54</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1991</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>119</v>
+      <c r="A29" s="14" t="n">
+        <v>143</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>2</v>
@@ -3862,18 +3859,18 @@
         <v>40</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>1991</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
-        <v>143</v>
+      <c r="A30" s="2" t="n">
+        <v>144</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>2</v>
@@ -3882,18 +3879,18 @@
         <v>40</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>2</v>
@@ -3902,18 +3899,18 @@
         <v>40</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>1979</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>2</v>
@@ -3922,38 +3919,38 @@
         <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>1989</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>2021</v>
+        <v>100</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>1986</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>2</v>
@@ -3962,18 +3959,18 @@
         <v>50</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>1986</v>
+        <v>56</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1980</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>2</v>
@@ -3982,58 +3979,58 @@
         <v>50</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>1980</v>
+        <v>58</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>1994</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>1994</v>
+        <v>153</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1977</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>1977</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>2</v>
@@ -4042,18 +4039,18 @@
         <v>50</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>2024</v>
+        <v>157</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>1996</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>2</v>
@@ -4062,30 +4059,30 @@
         <v>50</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>1996</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="F40" s="10" t="n">
         <v>1984</v>
@@ -4093,22 +4090,22 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>1984</v>
+        <v>160</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1978</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,9 +4128,9 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>2</v>
@@ -4142,13 +4139,13 @@
         <v>40</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>1978</v>
+        <v>1990</v>
       </c>
     </row>
   </sheetData>
@@ -4213,13 +4210,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1987</v>
@@ -4236,10 +4233,10 @@
         <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1993</v>
@@ -4256,10 +4253,10 @@
         <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -4271,13 +4268,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -4289,13 +4286,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -4310,10 +4307,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1985</v>
@@ -4327,13 +4324,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="F8" s="11"/>
     </row>
@@ -4345,13 +4342,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" s="11" t="n">
         <v>1991</v>
@@ -4368,10 +4365,10 @@
         <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1995</v>
@@ -4388,10 +4385,10 @@
         <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1998</v>
@@ -4408,10 +4405,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1985</v>
@@ -4425,13 +4422,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -4443,13 +4440,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="F14" s="11" t="n">
         <v>1971</v>
@@ -4520,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>45</v>
@@ -4537,13 +4534,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>2012</v>
@@ -4557,13 +4554,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>2005</v>
@@ -4577,13 +4574,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1980</v>
@@ -4597,13 +4594,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1979</v>
@@ -4617,13 +4614,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="11" t="n">
         <v>2017</v>
@@ -4637,13 +4634,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="F8" s="11" t="n">
         <v>1985</v>
@@ -4657,13 +4654,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1980</v>
@@ -4677,13 +4674,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1976</v>
@@ -4697,13 +4694,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>2001</v>
@@ -4717,13 +4714,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1999</v>
@@ -4737,10 +4734,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>28</v>
@@ -4757,13 +4754,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>2001</v>
@@ -4777,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
@@ -4797,10 +4794,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>45</v>
@@ -4820,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>9</v>
@@ -4837,13 +4834,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="F18" s="8" t="n">
         <v>1995</v>
@@ -4880,10 +4877,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>2022</v>
@@ -4900,10 +4897,10 @@
         <v>10</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="F21" s="8" t="n">
         <v>2014</v>
@@ -4920,10 +4917,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>1996</v>
@@ -4977,10 +4974,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>124</v>
@@ -5000,10 +4997,10 @@
         <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="F26" s="11" t="n">
         <v>1971</v>
@@ -5020,7 +5017,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>137</v>
@@ -5040,7 +5037,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>20</v>
@@ -5160,7 +5157,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>47</v>
@@ -5180,7 +5177,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>42</v>
@@ -5200,7 +5197,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>83</v>
@@ -5220,7 +5217,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>32</v>
@@ -5240,10 +5237,10 @@
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>2009</v>
@@ -5260,10 +5257,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>1976</v>
@@ -5280,7 +5277,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>79</v>
@@ -5300,10 +5297,10 @@
         <v>20</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>1992</v>
@@ -5320,7 +5317,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>28</v>
@@ -5340,7 +5337,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>81</v>
@@ -5380,10 +5377,10 @@
         <v>20</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>1975</v>
@@ -5400,10 +5397,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>1992</v>
@@ -5474,10 +5471,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>247</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,10 +5488,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,10 +5505,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,10 +5522,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,10 +5539,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>254</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,10 +5556,10 @@
         <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,10 +5573,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>258</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,10 +5590,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,10 +5607,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,10 +5624,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,10 +5641,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,10 +5658,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,13 +5672,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="17" t="s">
         <v>267</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,13 +5689,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,10 +5709,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,13 +5723,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,13 +5740,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,10 +5760,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5777,13 +5774,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5794,13 +5791,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,13 +5808,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,13 +5825,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>288</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5902,7 +5899,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>116</v>
@@ -5922,10 +5919,10 @@
         <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>292</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>1981</v>
@@ -5942,7 +5939,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>116</v>
@@ -5962,10 +5959,10 @@
         <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>295</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>1985</v>
@@ -5982,7 +5979,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>116</v>
@@ -6002,10 +5999,10 @@
         <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>1989</v>
@@ -6022,10 +6019,10 @@
         <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>1991</v>
@@ -6042,10 +6039,10 @@
         <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="F9" s="8" t="n">
         <v>1992</v>
@@ -6059,13 +6056,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>1998</v>
@@ -6079,13 +6076,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>1999</v>
@@ -6102,10 +6099,10 @@
         <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="F12" s="8" t="n">
         <v>2001</v>
@@ -6122,10 +6119,10 @@
         <v>51</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F13" s="8" t="n">
         <v>2001</v>
@@ -6139,13 +6136,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="F14" s="8" t="n">
         <v>2007</v>
@@ -6159,13 +6156,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="F15" s="8" t="n">
         <v>2007</v>
@@ -6179,13 +6176,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="F16" s="8" t="n">
         <v>2007</v>
@@ -6202,10 +6199,10 @@
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>2010</v>
@@ -6222,10 +6219,10 @@
         <v>40</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="F18" s="8" t="n">
         <v>2012</v>
@@ -6242,10 +6239,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="F19" s="8" t="n">
         <v>2014</v>
@@ -6262,10 +6259,10 @@
         <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>2013</v>
@@ -6282,10 +6279,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6300,10 +6297,10 @@
         <v>38</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>330</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>331</v>
       </c>
       <c r="F22" s="24"/>
     </row>
@@ -6369,10 +6366,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>16</v>
@@ -6389,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>105</v>
@@ -6412,7 +6409,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>24</v>
@@ -6429,13 +6426,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>1978</v>
@@ -6449,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>117</v>
@@ -6469,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>121</v>
@@ -6492,10 +6489,10 @@
         <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="11" t="n">
         <v>1971</v>
@@ -6512,7 +6509,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>47</v>
@@ -6529,13 +6526,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1992</v>
@@ -6552,7 +6549,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>20</v>
@@ -6569,10 +6566,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>40</v>
@@ -6609,13 +6606,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="F14" s="8" t="n">
         <v>2007</v>
@@ -6629,13 +6626,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>340</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>341</v>
       </c>
       <c r="F15" s="24" t="n">
         <v>1996</v>

--- a/pilotos.xlsx
+++ b/pilotos.xlsx
@@ -1555,7 +1555,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2713,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>94</v>

--- a/pilotos.xlsx
+++ b/pilotos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Clasica" sheetId="1" state="visible" r:id="rId3"/>
@@ -1554,7 +1554,7 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -3272,8 +3272,8 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>2</v>

--- a/pilotos.xlsx
+++ b/pilotos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Clasica" sheetId="1" state="visible" r:id="rId3"/>
@@ -3272,7 +3272,7 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -4470,8 +4470,8 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4774,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
